--- a/dateformats.xlsx
+++ b/dateformats.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\exceldatetime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290FDE4-816B-4159-B605-EA3B19AE611D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B8CA6-2710-4BE6-A847-4B3E171111C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{45EF8F10-8621-41F2-9000-1DE3ECFEC763}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{45EF8F10-8621-41F2-9000-1DE3ECFEC763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date Time Field </t>
   </si>
@@ -89,6 +90,48 @@
   </si>
   <si>
     <t>13-05-2019</t>
+  </si>
+  <si>
+    <t>Trade Date</t>
+  </si>
+  <si>
+    <t>Trade Time</t>
+  </si>
+  <si>
+    <t>Trader Contact Time</t>
+  </si>
+  <si>
+    <t>Client Order Time</t>
+  </si>
+  <si>
+    <t>User Timezone</t>
+  </si>
+  <si>
+    <t>User Locale</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata</t>
+  </si>
+  <si>
+    <t>en_IN</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>Europe/Rome</t>
+  </si>
+  <si>
+    <t>en_GB</t>
+  </si>
+  <si>
+    <t>en_UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-04-2019 10:09AM </t>
+  </si>
+  <si>
+    <t>America/New_York</t>
   </si>
 </sst>
 </file>
@@ -129,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -139,6 +182,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +500,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35081495-3E81-4053-B90D-03CE925C1E01}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -735,4 +779,332 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2676ED8-7B54-4CBC-B3C0-EF486DC18C5E}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43598.95416666667</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43598.95416666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43526</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>